--- a/testcases/TermsAndConditions #7.xlsx
+++ b/testcases/TermsAndConditions #7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84401D7E-BF17-4E61-BBBE-590E784E21F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3415A1E0-B3BC-4CA9-8439-DE0F5FB26F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
